--- a/data/trans_dic/P32C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>1,33; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,06; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>0,38; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +759,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0,15; 13,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,1; 3,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,74; 2,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,23; 2,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>0,06; 5,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,1; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,79; 3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,83; 3,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,46; 4,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0,41; 3,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,03; 3,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,55; 2,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,87; 3,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,22; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,39; 4,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,24; 2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,4; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,83; 2,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,15; 1,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,37; 2,44</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,29; 3,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,31; 5,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,27; 2,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,29; 2,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,38; 3,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1184,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,25; 2,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,69; 3,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,49; 2,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,17; 1,52</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>1,51; 7,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,35; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,19; 5,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,24; 5,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,0; 6,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,48; 4,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,04; 4,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,52; 3,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,83; 4,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,2; 4,1</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,41; 4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,41; 3,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,67; 3,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,01; 3,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,33; 3,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,31; 2,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,49; 2,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,52; 2,36</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,3; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,5; 2,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,12; 2,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,82; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,41; 1,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,19; 1,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,48; 2,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,13; 2,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,04; 1,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,86; 1,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,8; 1,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 13,9</t>
+          <t>0,17; 13,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,63</t>
+          <t>0,06; 4,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,23%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,54</t>
+          <t>0,36; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,44</t>
+          <t>0,34; 2,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,57</t>
+          <t>0,28; 2,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,16; 1,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,23</t>
+          <t>1,25; 5,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,35</t>
+          <t>0,47; 4,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,1</t>
+          <t>1,22; 4,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,22 +1356,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,27 +1391,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,16</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,56</t>
+          <t>0,63; 5,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,99</t>
+          <t>0,52; 5,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,71</t>
+          <t>0,61; 3,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0; 5,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0; 3,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0; 3,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,49</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,6</t>
+          <t>0,47; 3,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,78</t>
+          <t>0,38; 3,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,36</t>
+          <t>0,03; 1,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,09; 10,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,55</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,66</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 5,58</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 12,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 8,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 7,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 8,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,33</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 4,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,3; 2,59</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,5; 2,77</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,12; 2,24</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 1,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 1,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,41; 1,81</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,1; 0,78</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,19; 1,09</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,22</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 1,96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,13; 2,09</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,04; 1,91</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,86; 1,67</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 1,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 1,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P32C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,46</t>
+          <t>1,35; 5,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,75</t>
+          <t>0,92; 4,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,83</t>
+          <t>0,39; 3,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +745,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 13,51</t>
+          <t>0,17; 13,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,95</t>
+          <t>1,12; 4,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,97</t>
+          <t>0,73; 3,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,03</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,9</t>
+          <t>0,07; 5,29</t>
         </is>
       </c>
     </row>
@@ -864,17 +865,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,11</t>
+          <t>0,98; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,36</t>
+          <t>0,79; 3,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,71</t>
+          <t>0,83; 3,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +885,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,76</t>
+          <t>0,47; 5,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +895,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,6</t>
+          <t>0,42; 4,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,28</t>
+          <t>1,09; 3,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,58</t>
+          <t>0,54; 2,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,09</t>
+          <t>0,85; 3,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,08</t>
+          <t>0,22; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,65</t>
+          <t>1,34; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,5</t>
+          <t>0,24; 2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,31</t>
+          <t>0,36; 3,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0,16; 1,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,88</t>
+          <t>0,89; 2,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,66</t>
+          <t>0,15; 1,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,38</t>
+          <t>0,42; 2,38</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,77</t>
+          <t>0,29; 3,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,01</t>
+          <t>1,08; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,49</t>
+          <t>0,27; 2,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,51</t>
+          <t>0,26; 2,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1175,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,28</t>
+          <t>0,37; 3,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1185,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,73</t>
+          <t>0,38; 2,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,02</t>
+          <t>0,73; 3,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,3</t>
+          <t>0,47; 2,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,47</t>
+          <t>0,16; 1,66</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,19</t>
+          <t>1,47; 6,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,16</t>
+          <t>0,35; 3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,67</t>
+          <t>0,82; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,28</t>
+          <t>1,36; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,35</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1320,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,32</t>
+          <t>0,43; 4,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,8</t>
+          <t>1,05; 4,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,02</t>
+          <t>0,48; 2,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,16</t>
+          <t>0,84; 3,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,15</t>
+          <t>1,41; 4,1</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1425,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,52</t>
+          <t>0,65; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,13</t>
+          <t>0,52; 4,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,38</t>
+          <t>0,62; 3,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,87</t>
+          <t>0,35; 3,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,33</t>
+          <t>0,38; 3,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,75</t>
+          <t>0,07; 1,89</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,1</t>
+          <t>1,1; 10,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,58</t>
+          <t>0,57; 6,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,12 +1600,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,05</t>
+          <t>0,89; 8,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,64</t>
+          <t>0,77; 5,02</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,59</t>
+          <t>1,31; 2,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,77</t>
+          <t>1,46; 2,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,24</t>
+          <t>1,14; 2,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,78</t>
+          <t>0,71; 1,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,81</t>
+          <t>0,39; 1,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,78</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,09</t>
+          <t>0,26; 1,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,96</t>
+          <t>0,35; 1,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,09</t>
+          <t>1,13; 2,15</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,91</t>
+          <t>1,03; 1,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,67</t>
+          <t>0,89; 1,67</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,59</t>
+          <t>0,74; 1,55</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha bebido alguna vez para calmar los nervios o para evitar la resaca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6503</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3374</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10432</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7515</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3374</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3781; 15295</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2553; 12302</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>968; 9241</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4582</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7752</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5138</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1859</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>169; 13473</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5223; 19133</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3350; 14157</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9682</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>180; 14319</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10884</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14588</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4923; 19430</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3652; 16533</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3016; 13999</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2830</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1022; 11197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>928; 9096</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4322</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7861; 24086</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3691; 17125</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4965; 18279</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4325</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10830</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10830</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>881; 8047</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5744; 18471</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1018; 10992</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1021; 9044</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6229</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2082</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4592</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1013; 9567</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5969; 18324</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1022; 10836</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1810; 10306</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9636</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3181</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4807</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9636</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>909; 10593</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4257; 19628</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1060; 9765</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>886; 8685</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5089</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2178</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>983; 8463</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1137</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1752; 13512</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4418; 19115</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3097; 14913</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>884; 8891</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7966</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2287</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7966</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9191</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2645; 12213</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>797; 7477</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2331; 15128</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3588; 13807</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6235</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2185</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>578; 5392</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2677; 12736</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1633; 10157</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3447; 15964</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5623; 16299</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3511</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3900</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>991; 8268</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>915; 8183</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1186; 6922</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1752</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3520</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4558</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>727; 8185</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>917; 8081</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>329; 8882</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2647</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2647</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2787</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>808; 7584</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2184</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5418</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>572; 6196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2083</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2679</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2304</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>799; 7731</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6207</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>974; 6363</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>35262</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31963</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9252</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>43443</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>43958</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>38173</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>28069</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>24534; 49733</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>29656; 56954</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22488; 44608</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>11182; 27422</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3529; 16377</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9173</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2921; 13756</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3608; 18783</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>31280; 59731</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>31615; 59712</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>27679; 52044</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>19245; 40527</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>